--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26387.47058748349</v>
+        <v>5251106.646909214</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26387.47058748349</v>
+        <v>5251106.646909214</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36082.55646872756</v>
+        <v>2501719.645786271</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36082.55646872756</v>
+        <v>2501719.645786271</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495399887.123963</v>
+        <v>59124506.7623973</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12971.43105999459</v>
+        <v>1354526.00081148</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25178.49351196977</v>
+        <v>2582418.615135759</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37385.55596394494</v>
+        <v>3810311.22946004</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51386.7990446773</v>
+        <v>4982001.869768124</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65299.74313551063</v>
+        <v>6136121.011086309</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79212.68722634397</v>
+        <v>7290240.152404492</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93304.12990303588</v>
+        <v>8451608.5220055</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107359.1442968995</v>
+        <v>9605727.66332368</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121004.1484468505</v>
+        <v>10755281.78511944</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134703.003101852</v>
+        <v>11915552.15742025</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>148401.8577568535</v>
+        <v>13075822.52972106</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160965.0945234227</v>
+        <v>14251770.9724253</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>173616.630279891</v>
+        <v>15445290.91411944</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187519.1081303544</v>
+        <v>16519442.604544</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201382.3304989593</v>
+        <v>17558635.68898972</v>
       </c>
     </row>
   </sheetData>
